--- a/2024/mothurmetadata.xlsx
+++ b/2024/mothurmetadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdph224\Documents\GitHub\Rhizosphere-sequencing\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9238B92B-99FA-450A-8148-A370179A0B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B398A6F-3C71-46FC-9070-707197460BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,33 +33,6 @@
     <t>Plot</t>
   </si>
   <si>
-    <t>soil pH</t>
-  </si>
-  <si>
-    <t>soil-water pH</t>
-  </si>
-  <si>
-    <t>Buffer pH</t>
-  </si>
-  <si>
-    <t>P (kg/ha)</t>
-  </si>
-  <si>
-    <t>K (kg/ha)</t>
-  </si>
-  <si>
-    <t>Ca (kg/ha)</t>
-  </si>
-  <si>
-    <t>Mg (kg/ha)</t>
-  </si>
-  <si>
-    <t>Zn (kg/ha)</t>
-  </si>
-  <si>
-    <t>Cash Crop</t>
-  </si>
-  <si>
     <t>KS101</t>
   </si>
   <si>
@@ -250,6 +223,33 @@
   </si>
   <si>
     <t>UK506</t>
+  </si>
+  <si>
+    <t>soil-waterpH</t>
+  </si>
+  <si>
+    <t>soilpH</t>
+  </si>
+  <si>
+    <t>BufferpH</t>
+  </si>
+  <si>
+    <t>P(kg/ha)</t>
+  </si>
+  <si>
+    <t>K(kg/ha)</t>
+  </si>
+  <si>
+    <t>Ca(kg/ha)</t>
+  </si>
+  <si>
+    <t>Mg(kg/ha)</t>
+  </si>
+  <si>
+    <t>Zn(kg/ha)</t>
+  </si>
+  <si>
+    <t>CashCrop</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,36 +587,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>5.18</v>
@@ -643,12 +643,12 @@
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>5.55</v>
@@ -675,12 +675,12 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>5.42</v>
@@ -707,12 +707,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>5.12</v>
@@ -739,12 +739,12 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>4.67</v>
@@ -771,12 +771,12 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>5.08</v>
@@ -803,12 +803,12 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>5.16</v>
@@ -835,12 +835,12 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>5.08</v>
@@ -867,12 +867,12 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>5.34</v>
@@ -899,12 +899,12 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>5.03</v>
@@ -931,12 +931,12 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>4.7300000000000004</v>
@@ -963,12 +963,12 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>5.12</v>
@@ -995,12 +995,12 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>4.99</v>
@@ -1027,12 +1027,12 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>5.23</v>
@@ -1059,12 +1059,12 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>5.15</v>
@@ -1091,12 +1091,12 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>5.0999999999999996</v>
@@ -1123,12 +1123,12 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>4.83</v>
@@ -1155,12 +1155,12 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>4.9000000000000004</v>
@@ -1187,12 +1187,12 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>5.24</v>
@@ -1219,12 +1219,12 @@
         <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>5.05</v>
@@ -1251,12 +1251,12 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>5.17</v>
@@ -1283,12 +1283,12 @@
         <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>5.31</v>
@@ -1315,12 +1315,12 @@
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>5.27</v>
@@ -1347,12 +1347,12 @@
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>5.4</v>
@@ -1379,12 +1379,12 @@
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>5.25</v>
@@ -1411,12 +1411,12 @@
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>5.07</v>
@@ -1443,12 +1443,12 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>5.28</v>
@@ -1475,12 +1475,12 @@
         <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>5.46</v>
@@ -1507,12 +1507,12 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>5.51</v>
@@ -1539,12 +1539,12 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>5.37</v>
@@ -1571,12 +1571,12 @@
         <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>5.94</v>
@@ -1603,12 +1603,12 @@
         <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>5.89</v>
@@ -1635,12 +1635,12 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>6.09</v>
@@ -1667,12 +1667,12 @@
         <v>5</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>5.87</v>
@@ -1699,12 +1699,12 @@
         <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>6.3</v>
@@ -1731,12 +1731,12 @@
         <v>6</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>5.87</v>
@@ -1763,12 +1763,12 @@
         <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>6.08</v>
@@ -1795,12 +1795,12 @@
         <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>5.94</v>
@@ -1827,12 +1827,12 @@
         <v>6</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>6.2</v>
@@ -1859,12 +1859,12 @@
         <v>17</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>5.9</v>
@@ -1891,12 +1891,12 @@
         <v>28</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>6.08</v>
@@ -1923,12 +1923,12 @@
         <v>7</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>6.05</v>
@@ -1955,12 +1955,12 @@
         <v>10</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>6.13</v>
@@ -1987,12 +1987,12 @@
         <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>5.87</v>
@@ -2019,12 +2019,12 @@
         <v>9</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>5.73</v>
@@ -2051,12 +2051,12 @@
         <v>4</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>5.94</v>
@@ -2083,12 +2083,12 @@
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>5.99</v>
@@ -2115,12 +2115,12 @@
         <v>9</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>5.84</v>
@@ -2147,12 +2147,12 @@
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>5.63</v>
@@ -2179,12 +2179,12 @@
         <v>4</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>5.79</v>
@@ -2211,12 +2211,12 @@
         <v>9</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>5.82</v>
@@ -2243,12 +2243,12 @@
         <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>5.67</v>
@@ -2275,12 +2275,12 @@
         <v>5</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>5.93</v>
@@ -2307,12 +2307,12 @@
         <v>10</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>5.91</v>
@@ -2339,12 +2339,12 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>6.11</v>
@@ -2371,12 +2371,12 @@
         <v>23</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>6.03</v>
@@ -2403,12 +2403,12 @@
         <v>17</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>5.83</v>
@@ -2435,12 +2435,12 @@
         <v>4</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>6.06</v>
@@ -2467,12 +2467,12 @@
         <v>18</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>5.96</v>
@@ -2499,12 +2499,12 @@
         <v>35</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>5.86</v>
@@ -2531,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
